--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>DVDSG</t>
+    <t>DCLI1</t>
   </si>
   <si>
-    <t>DVRMG</t>
+    <t>DCLI5</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -72,16 +72,10 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>1</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,18 +6,90 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>DCLI1</t>
-  </si>
-  <si>
-    <t>DCLI5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -62,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -72,10 +144,152 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,18 +6,132 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+  <si>
+    <t>DCLI1</t>
+  </si>
+  <si>
+    <t>DCLI5</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
     <t>Por error de volcado en el pdf de activacion indicamos que el CISNA tiene que ir con un bucket individual de 4,09</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DICR1</t>
+  </si>
+  <si>
+    <t>DICRR</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVM2M</t>
+  </si>
+  <si>
+    <t>DVCAR</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
   </si>
 </sst>
 </file>
@@ -62,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,7 +184,280 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Minutos" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
     <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
@@ -23,6 +23,12 @@
     <t>DCLI5</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Por error de volcado en el pdf de activacion indicamos que el CISNA tiene que ir con un bucket individual de 4,09</t>
+  </si>
+  <si>
     <t>MPMVD</t>
   </si>
   <si>
@@ -99,12 +105,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Por error de volcado en el pdf de activacion indicamos que el CISNA tiene que ir con un bucket individual de 4,09</t>
   </si>
   <si>
     <t>DVBMS</t>
@@ -199,6 +199,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -207,171 +225,153 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
         <v>29</v>
       </c>
     </row>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,13 +6,131 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Trenes(BI)" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
+    <sheet name="PlantillaCM-Trenes(BI)" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+  <si>
+    <t>DCLI1</t>
+  </si>
+  <si>
+    <t>DCLI5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Por error de volcado en el pdf de activacion indicamos que el CISNA tiene que ir con un bucket individual de 4,09</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DICR1</t>
+  </si>
+  <si>
+    <t>DICRR</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVM2M</t>
+  </si>
+  <si>
+    <t>DVCAR</t>
+  </si>
   <si>
     <t>DPIDC</t>
   </si>
@@ -24,9 +142,6 @@
   </si>
   <si>
     <t xml:space="preserve">  0</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -71,7 +186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,21 +196,312 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -9,43 +9,42 @@
     <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
     <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
     <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
-    <sheet name="PlantillaCM-Trenes(BI)" r:id="rId7" sheetId="5"/>
+    <sheet name="PlantillaCM-Trenes(BI)" r:id="rId6" sheetId="4"/>
+    <sheet name="PlantillaCM-Trenes(BlI)" r:id="rId7" sheetId="5"/>
+    <sheet name="PlantillaCM-Inldice" r:id="rId8" sheetId="6"/>
+    <sheet name="PlantillaCM-Inoldice" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>DCLI1</t>
-  </si>
-  <si>
-    <t>DCLI5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t/>
   </si>
   <si>
-    <t>Por error de volcado en el pdf de activacion indicamos que el CISNA tiene que ir con un bucket individual de 4,09</t>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>2.61</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>1,5</t>
+    <t>7.11</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>MPMVB</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
   </si>
   <si>
     <t>PIDCB</t>
@@ -54,94 +53,82 @@
     <t>PIDCC</t>
   </si>
   <si>
+    <t>5.11</t>
+  </si>
+  <si>
     <t>PIDCD</t>
   </si>
   <si>
+    <t>6.11</t>
+  </si>
+  <si>
     <t>PIDCE</t>
   </si>
   <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>PIDCA</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>13,5</t>
-  </si>
-  <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>0</t>
+    <t>3</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>TDICD</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>TDICE</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>6,5</t>
-  </si>
-  <si>
     <t>TDICA</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>TDICU</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>DVBMS</t>
-  </si>
-  <si>
-    <t>DICR1</t>
-  </si>
-  <si>
-    <t>DICRR</t>
-  </si>
-  <si>
-    <t>DCRMB</t>
-  </si>
-  <si>
-    <t>DVPOA</t>
-  </si>
-  <si>
-    <t>DVPOM</t>
-  </si>
-  <si>
-    <t>DVM2M</t>
-  </si>
-  <si>
-    <t>DVCAR</t>
-  </si>
-  <si>
     <t>DPIDC</t>
   </si>
   <si>
+    <t xml:space="preserve">  75</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
     <t xml:space="preserve">  100</t>
   </si>
   <si>
-    <t>DCFWP</t>
+    <t>DSCOV</t>
   </si>
   <si>
     <t xml:space="preserve">  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  73</t>
   </si>
 </sst>
 </file>
@@ -186,115 +173,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>4</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -310,7 +286,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -318,20 +294,20 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>20</v>
@@ -339,50 +315,50 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -392,7 +368,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,106 +378,94 @@
       <c r="A1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>66.66666666666667</v>
+      <c r="B1" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>10.0</v>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B5" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B6" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -10,15 +10,13 @@
     <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
     <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
     <sheet name="PlantillaCM-Trenes(BI)" r:id="rId6" sheetId="4"/>
-    <sheet name="PlantillaCM-Trenes(BlI)" r:id="rId7" sheetId="5"/>
-    <sheet name="PlantillaCM-Inldice" r:id="rId8" sheetId="6"/>
-    <sheet name="PlantillaCM-Inoldice" r:id="rId9" sheetId="7"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -26,19 +24,19 @@
     <t>MPMVB</t>
   </si>
   <si>
-    <t>2.61</t>
+    <t>2,61</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>7.11</t>
+    <t>7,11</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>4.11</t>
+    <t>4,11</t>
   </si>
   <si>
     <t>MTCOU</t>
@@ -53,19 +51,19 @@
     <t>PIDCC</t>
   </si>
   <si>
-    <t>5.11</t>
+    <t>5,11</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>6.11</t>
+    <t>6,11</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>9.11</t>
+    <t>9,11</t>
   </si>
   <si>
     <t>PIDCF</t>
@@ -126,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">  0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  73</t>
   </si>
 </sst>
 </file>
@@ -405,70 +400,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,17 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
-    <sheet name="PlantillaCM-Trenes(BI)" r:id="rId6" sheetId="4"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId7" sheetId="5"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -106,24 +104,6 @@
   </si>
   <si>
     <t>TDICU</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  75</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  100</t>
-  </si>
-  <si>
-    <t>DSCOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0</t>
   </si>
 </sst>
 </file>
@@ -173,18 +153,6 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -196,7 +164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -361,44 +329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
     <sheet name="PlantillaCM-Minutos" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -327,16 +326,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,40 +6,48 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Descuentos" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Trenes(IB)" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>MPCOB</t>
+  </si>
+  <si>
+    <t>MPCOL</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>DCDIS</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>DVPN5</t>
+    <t>Provisionar el plan de precios de Dtos y Tarifas Complementarios en lugar del PDF de provisión. 
+Terminales con apoyo de Samsung adicional incluidos en la oferta</t>
   </si>
   <si>
-    <t>DCO4G</t>
+    <t>DPIDC</t>
   </si>
   <si>
-    <t>DC2GB</t>
+    <t xml:space="preserve">  0</t>
   </si>
   <si>
-    <t>DVTFX</t>
+    <t>DCFWP</t>
   </si>
   <si>
-    <t>DVDSG</t>
-  </si>
-  <si>
-    <t>DVRMG</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFES</t>
+    <t>DSCOV</t>
   </si>
 </sst>
 </file>
@@ -84,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,6 +102,38 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -102,7 +142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -110,66 +150,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>82.85714285714285</v>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>69.38775510204081</v>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>8</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,89 +6,60 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Descuentos y Otros" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
-    <sheet name="PlantillaCM-Trenes(IB)" r:id="rId6" sheetId="4"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId7" sheetId="5"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Trenesj" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
-  <si>
-    <t>DPOV1</t>
-  </si>
-  <si>
-    <t>Descuentos Empresas</t>
-  </si>
-  <si>
-    <t>All types</t>
-  </si>
-  <si>
-    <t>DACR1</t>
-  </si>
-  <si>
-    <t>POSES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t/>
   </si>
   <si>
-    <t>Provisionar los códigos de IB según la hoja Infinity Business, añadir los descuentos de la hoja Tren a los del JO. 
-Se incluye postventa essential en lugar de pvta Class en la pestaña de Dtos y Tarifas complementarios</t>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>13,75</t>
+    <t>12,25</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>7,75</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>MPMVB</t>
-  </si>
-  <si>
-    <t>4,26</t>
+    <t>6,25</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>16,75</t>
-  </si>
-  <si>
     <t>PIDCC</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>31,75</t>
-  </si>
-  <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>46,75</t>
+    <t>8,88</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -97,46 +68,37 @@
     <t>PIDCU</t>
   </si>
   <si>
-    <t>27</t>
+    <t>10,25</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>9,5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>TDICE</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>19,5</t>
+    <t>7,48</t>
   </si>
   <si>
     <t>TDICA</t>
   </si>
   <si>
+    <t>TDICU</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>TDICU</t>
+    <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
     <t>DPIDC</t>
@@ -146,6 +108,9 @@
   </si>
   <si>
     <t>DDCRW</t>
+  </si>
+  <si>
+    <t>DDECB</t>
   </si>
   <si>
     <t>DVCAR</t>
@@ -193,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -203,28 +168,6 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -232,24 +175,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -259,154 +184,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -414,9 +339,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,18 +349,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B1" t="n" s="0">
-        <v>50.0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>50.0</v>
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
@@ -443,9 +373,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,17 +383,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>30.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B2" t="n" s="0">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>100.0</v>
       </c>
     </row>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t/>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+  </si>
+  <si>
+    <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
     <t>DPIDC</t>
@@ -103,13 +106,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
       <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>40.0</v>
@@ -117,7 +123,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>68.0</v>
@@ -125,7 +131,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>68.0</v>
@@ -133,7 +139,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>100.0</v>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,28 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
   </si>
   <si>
     <t>All Trenes From CM-Plantilla...</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
   </si>
   <si>
     <t>DDCRW</t>
@@ -36,7 +26,13 @@
     <t>DDECB</t>
   </si>
   <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
     <t>DVCAR</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
   </si>
 </sst>
 </file>
@@ -81,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,39 +87,21 @@
       <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>3</v>
-      </c>
       <c r="C1" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>40.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>68.0</v>
@@ -131,18 +109,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>68.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>80.83</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,33 +6,109 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Trenes" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>12.25</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>8.88</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>7.48</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
     <t>DDCRW</t>
   </si>
   <si>
     <t>DDECB</t>
   </si>
   <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
     <t>DVCAR</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
   </si>
 </sst>
 </file>
@@ -77,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -85,50 +161,212 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>68.0</v>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>68.0</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>100.0</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>100.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>31</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>80.83</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -14,113 +14,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t/>
   </si>
   <si>
-    <t>Provisionar en cuentas distintas los planes de precio: 
-TC05G (Perfil 3) Dto: 88,03%, TC05G (Perfil 4) Dto: 84,28%, TC10G (Perfil 2)  Dto: 85,90% y PIDCU (Perfil 1)
-Compensación de tráficos de manera anual.
-Revisar hoja de facturación de CARE.</t>
+    <t>No provisionar ningun Bono Row al cliente. La facturación se hace por bolsa adhoc.</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>3,96</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>3,23</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1,5</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>MPCOU</t>
-  </si>
-  <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>MPRCV</t>
-  </si>
-  <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>15,5</t>
+    <t>7,5</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>20,5</t>
-  </si>
-  <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>25,5</t>
-  </si>
-  <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>30,5</t>
-  </si>
-  <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>45,5</t>
-  </si>
-  <si>
     <t>PIDCA</t>
   </si>
   <si>
-    <t>12,5</t>
-  </si>
-  <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>17,79</t>
+    <t>27,5</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>9</t>
+    <t>6,25</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>TDICA</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>TDICU</t>
   </si>
   <si>
@@ -130,52 +100,19 @@
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
-    <t>DVM2M</t>
-  </si>
-  <si>
-    <t>88,03</t>
-  </si>
-  <si>
-    <t>DCTCB</t>
-  </si>
-  <si>
-    <t>85,90</t>
-  </si>
-  <si>
-    <t>DVBMS</t>
+    <t>DPIDC</t>
   </si>
   <si>
     <t>DDCRW</t>
   </si>
   <si>
+    <t>DRZRW</t>
+  </si>
+  <si>
     <t>DDECB</t>
   </si>
   <si>
-    <t>DVDSG</t>
-  </si>
-  <si>
     <t>DVRMG</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
-  </si>
-  <si>
-    <t>DVRRE</t>
   </si>
   <si>
     <t>DVCAR</t>
@@ -241,7 +178,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -260,55 +197,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -316,87 +253,79 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -406,7 +335,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,36 +343,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>80.0</v>
+        <v>87.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>100.0</v>
@@ -451,7 +380,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>100.0</v>
@@ -459,81 +388,9 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B12" t="n" s="0">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B13" t="n" s="0">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B14" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B15" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B16" t="n" s="0">
         <v>100.0</v>
       </c>
     </row>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,15 +6,126 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Trenes" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Descuentos y Otros1" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisionar los códigos según Dtos y Tarifas Complementarios en lugar de los del pdf de provisión. </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>All Trenes From CM-Plantilla...</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>el Fichero de Tren en la plantilla del CM no Existe.</t>
   </si>
 </sst>
 </file>
@@ -59,15 +170,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="C1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="C1" t="s" s="0">
+      <c r="A1" t="s" s="0">
         <v>0</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>0.6499999999999999</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Descuentos y Otros1" r:id="rId3" sheetId="1"/>
+    <sheet name="Dtos y Tarifas Complementarios" r:id="rId3" sheetId="1"/>
     <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
     <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
     <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>MPMVB</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>DPIDC</t>
+  </si>
+  <si>
+    <t>Trenes del Fichero Infinity Business</t>
   </si>
   <si>
     <t>el Fichero de Tren en la plantilla del CM no Existe.</t>
@@ -408,6 +411,9 @@
       <c r="B2" t="n" s="0">
         <v>100.0</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -416,10 +422,13 @@
       <c r="B3" t="n" s="0">
         <v>100.0</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -15,110 +15,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+  <si>
+    <t>DPOV5</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
+  </si>
+  <si>
+    <t>DRYDS</t>
+  </si>
+  <si>
+    <t>Descuentos Especiales Empresas GGCC - Voz</t>
+  </si>
+  <si>
+    <t>DSLIM</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>M2M, Infinity, Integrada</t>
+  </si>
+  <si>
+    <t>MPMVA</t>
+  </si>
+  <si>
+    <t>POSFR</t>
+  </si>
+  <si>
+    <t>Posventa a nivel de Servicio y a nivel de cuenta es: POCFR</t>
+  </si>
+  <si>
+    <t>CIGCU</t>
+  </si>
+  <si>
+    <t>CIVNA</t>
+  </si>
+  <si>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>CISNA</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">+Provisionar Infinity Business según códigos de la hoja Infinity Business en todas las cuentas con líneas Voz y Voz y datos móviles. Los buckets de minutos están en Dtos y Tarifas complementarias 
++ Provisionar los descuentos de la hoja Dtos y Tarifas complementarias en todas las cuentas con líneas de voz y Voz y datos móviles. No provisionar en cuentas primarios, IoT y RedBox
++ No Provisionar Infinity Business en cuentas con Primarios, IoT, Redbox
++ Provisionar los descuentos a nivel de cuenta de la hoja TREN en todas las cuentas con líneas de voz y Voz y datos móviles. No provisionar en cuentas primarios, IoT y RedBox. Confirmar con CM los descuentos en cuentas matrices que pudieran solaparse (ej.: franquicias, tráfico primarios....)
++ Provisionar en las cuentas de primarios los descuentos por trenes de la hoja Tren PRIMARIOS (plan de precios primario: LVSH5)
++ Se mantienen todos los descuentos existentes en: google y microsoft. 
++ Mantener los bonos row (BRWxx) en todas las cuentas que los tengan provisionados.
++Mantener los límites de consumo de roaming a nivel de línea actuales, y el que no tenga ponerle el límite de 500€
++ (16Ago22) €VF.: Se provisionarán en la segunda fase de provisión, en octubre donde se incluirán el resto de cif. Se adjuntará la plantilla de €vf correspondiente para la asignación por cif de la bolsa aprobada. Se adjuntará en el JO 29959.v7.
++(26/09/22) €VF: Se adjunta el reparto de €VF a falta de decisión de los cifs marcados en naranja, que se realizarán mediante anexión de cif, debido a que no disponemos aún de su confirmación de continuidad. Se están solicitando menos €Vf de los aprobados, provisionar según reparto de la hoja Euros VF a medida. </t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
     <t>PIDCD</t>
   </si>
   <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
     <t>TDICU</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provisionar los códigos según Dtos y Tarifas Complementarios en lugar de los del pdf de provisión. </t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>MPCOU</t>
-  </si>
-  <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>MPRCV</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>TDICB</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>TDICC</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>TDICD</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>TDICE</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
@@ -128,7 +170,133 @@
     <t>Trenes del Fichero Infinity Business</t>
   </si>
   <si>
-    <t>el Fichero de Tren en la plantilla del CM no Existe.</t>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DTUSA</t>
+  </si>
+  <si>
+    <t>DCT4G</t>
+  </si>
+  <si>
+    <t>DCO4G</t>
+  </si>
+  <si>
+    <t>DCT2G</t>
+  </si>
+  <si>
+    <t>DCT5G</t>
+  </si>
+  <si>
+    <t>DCT1G</t>
+  </si>
+  <si>
+    <t>DC2GB</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DDCRW</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
+  </si>
+  <si>
+    <t>DDECB</t>
+  </si>
+  <si>
+    <t>DRZMU</t>
+  </si>
+  <si>
+    <t>DVPCF</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DVMTA</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>DBPIN</t>
+  </si>
+  <si>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>DGSH1</t>
+  </si>
+  <si>
+    <t>DVRMG</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>DVFES</t>
+  </si>
+  <si>
+    <t>DVFME</t>
+  </si>
+  <si>
+    <t>DPRID</t>
   </si>
 </sst>
 </file>
@@ -173,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,24 +351,105 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>0.6499999999999999</v>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>4.91</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>12.0</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
@@ -218,7 +467,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -228,7 +477,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -236,154 +485,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -393,7 +634,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,34 +642,365 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="s" s="0">
-        <v>37</v>
+      <c r="A4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>96.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PdfProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Dtos y Tarifas Complementarios" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId5" sheetId="3"/>
+    <sheet name="Dtos y Tarifas Complementarios" sheetId="1" r:id="rId1"/>
+    <sheet name="PlantillaCM-Indice" sheetId="2" r:id="rId2"/>
+    <sheet name="PlantillaCM-Minutos" sheetId="3" r:id="rId3"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId7" sheetId="4"/>
   </sheets>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PIDCA</t>
   </si>
@@ -46,22 +52,79 @@
     <t>TDICE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">Provisionar los descuentos indicados en la pestaña TREN en lugar de los del pdf y provisionar planes de precios según valor indicado en Dtos y Tarifas Complementarios en lugar del pdf. </t>
   </si>
   <si>
-    <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>All Trenes From CM-Plantilla...</t>
-  </si>
-  <si>
-    <t>DCRME</t>
-  </si>
-  <si>
-    <t>DVCAR</t>
   </si>
 </sst>
 </file>
@@ -71,7 +134,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,17 +146,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -101,22 +158,314 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="B1" s="0">
         <v>7.25</v>
       </c>
     </row>
@@ -124,7 +473,7 @@
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="B2" s="0">
         <v>7.25</v>
       </c>
     </row>
@@ -132,7 +481,7 @@
       <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B3" s="0">
         <v>7.25</v>
       </c>
     </row>
@@ -140,7 +489,7 @@
       <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="B4" s="0">
         <v>7.25</v>
       </c>
     </row>
@@ -148,7 +497,7 @@
       <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="B5" s="0">
         <v>7.25</v>
       </c>
     </row>
@@ -156,7 +505,7 @@
       <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="B6" s="0">
         <v>6.96</v>
       </c>
     </row>
@@ -164,7 +513,7 @@
       <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="B7" s="0">
         <v>6.96</v>
       </c>
     </row>
@@ -172,7 +521,7 @@
       <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="n" s="0">
+      <c r="B8" s="0">
         <v>6.96</v>
       </c>
     </row>
@@ -180,7 +529,7 @@
       <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="n" s="0">
+      <c r="B9" s="0">
         <v>6.96</v>
       </c>
     </row>
@@ -188,16 +537,196 @@
       <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="B10" s="0">
         <v>6.96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -207,44 +736,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>96.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>100.0</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,40 +6,297 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantillaCM-Indice" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId4" sheetId="2"/>
+    <sheet name="Dtos y Tarifas Complementarios" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+  <si>
+    <t>DPOV5</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
+  </si>
+  <si>
+    <t>DRYDS</t>
+  </si>
+  <si>
+    <t>Descuentos Especiales Empresas GGCC - Voz</t>
+  </si>
+  <si>
+    <t>DSLIM</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>M2M, Infinity, Integrada</t>
+  </si>
+  <si>
+    <t>MPMVA</t>
+  </si>
+  <si>
+    <t>POSFR</t>
+  </si>
+  <si>
+    <t>Posventa a nivel de Servicio y a nivel de cuenta es: POCFR</t>
+  </si>
+  <si>
+    <t>CIGCU</t>
+  </si>
+  <si>
+    <t>CIVNA</t>
+  </si>
+  <si>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>CISNA</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+    <t xml:space="preserve">+Provisionar Infinity Business según códigos de la hoja Infinity Business en todas las cuentas con líneas Voz y Voz y datos móviles. Los buckets de minutos están en Dtos y Tarifas complementarias 
++ Provisionar los descuentos de la hoja Dtos y Tarifas complementarias en todas las cuentas con líneas de voz y Voz y datos móviles. No provisionar en cuentas primarios, IoT y RedBox
++ No Provisionar Infinity Business en cuentas con Primarios, IoT, Redbox
++ Provisionar los descuentos a nivel de cuenta de la hoja TREN en todas las cuentas con líneas de voz y Voz y datos móviles. No provisionar en cuentas primarios, IoT y RedBox. Confirmar con CM los descuentos en cuentas matrices que pudieran solaparse (ej.: franquicias, tráfico primarios....)
++ Provisionar en las cuentas de primarios los descuentos por trenes de la hoja Tren PRIMARIOS (plan de precios primario: LVSH5)
++ Se mantienen todos los descuentos existentes en: google y microsoft. 
++ Mantener los bonos row (BRWxx) en todas las cuentas que los tengan provisionados.
++Mantener los límites de consumo de roaming a nivel de línea actuales, y el que no tenga ponerle el límite de 500€
++ (16Ago22) €VF.: Se provisionarán en la segunda fase de provisión, en octubre donde se incluirán el resto de cif. Se adjuntará la plantilla de €vf correspondiente para la asignación por cif de la bolsa aprobada. Se adjuntará en el JO 29959.v7.
++(26/09/22) €VF: Se adjunta el reparto de €VF a falta de decisión de los cifs marcados en naranja, que se realizarán mediante anexión de cif, debido a que no disponemos aún de su confirmación de continuidad. Se están solicitando menos €Vf de los aprobados, provisionar según reparto de la hoja Euros VF a medida. </t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
-    <t>DVPN5</t>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>Trenes del Fichero Infinity Business</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DTUSA</t>
   </si>
   <si>
     <t>DCT4G</t>
   </si>
   <si>
+    <t>DCO4G</t>
+  </si>
+  <si>
+    <t>DCT2G</t>
+  </si>
+  <si>
     <t>DCT5G</t>
   </si>
   <si>
+    <t>DCT1G</t>
+  </si>
+  <si>
+    <t>DC2GB</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DDCRW</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
+  </si>
+  <si>
+    <t>DDECB</t>
+  </si>
+  <si>
+    <t>DRZMU</t>
+  </si>
+  <si>
+    <t>DVPCF</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DVMTA</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>DBPIN</t>
+  </si>
+  <si>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>DGSH1</t>
+  </si>
+  <si>
+    <t>DVRMG</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
     <t>DV90X</t>
   </si>
   <si>
     <t>DVINT</t>
   </si>
   <si>
-    <t>DVCAR</t>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>DVFES</t>
+  </si>
+  <si>
+    <t>DVFME</t>
+  </si>
+  <si>
+    <t>DPRID</t>
   </si>
 </sst>
 </file>
@@ -84,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,6 +351,106 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1.38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -102,7 +459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -110,57 +467,539 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>1</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>67.8571</v>
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>67.2222</v>
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>88.0</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>100.0</v>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>100.0</v>
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>52</v>
       </c>
       <c r="B7" t="n" s="0">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>96.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B45" t="n" s="0">
         <v>100.0</v>
       </c>
     </row>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,34 +6,197 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Dtos y Tarifas Complementarios" r:id="rId3" sheetId="1"/>
+    <sheet name="Descuentos y Tarifas" r:id="rId3" sheetId="1"/>
     <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>DFUPC</t>
-  </si>
-  <si>
-    <t>Descuentos Especial Airtel Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+  <si>
+    <t>DPOV5</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
+  </si>
+  <si>
+    <t>DRYDS</t>
+  </si>
+  <si>
+    <t>Descuentos Especiales Empresas GGCC - Voz</t>
+  </si>
+  <si>
+    <t>DSLIM</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>M2M, Infinity, Integrada</t>
+  </si>
+  <si>
+    <t>MPMVA</t>
+  </si>
+  <si>
+    <t>POSFR</t>
+  </si>
+  <si>
+    <t>Posventa a nivel de Servicio y a nivel de cuenta es: POCFR</t>
+  </si>
+  <si>
+    <t>CIGCU</t>
+  </si>
+  <si>
+    <t>CIVNA</t>
+  </si>
+  <si>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>CISNA</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+    <t xml:space="preserve">+Provisionar Infinity Business según códigos de la hoja Infinity Business en todas las cuentas con líneas Voz y Voz y datos móviles. Los buckets de minutos están en Dtos y Tarifas complementarias 
++ Provisionar los descuentos de la hoja Dtos y Tarifas complementarias en todas las cuentas con líneas de voz y Voz y datos móviles. No provisionar en cuentas primarios, IoT y RedBox
++ No Provisionar Infinity Business en cuentas con Primarios, IoT, Redbox
++ Provisionar los descuentos a nivel de cuenta de la hoja TREN en todas las cuentas con líneas de voz y Voz y datos móviles. No provisionar en cuentas primarios, IoT y RedBox. Confirmar con CM los descuentos en cuentas matrices que pudieran solaparse (ej.: franquicias, tráfico primarios....)
++ Provisionar en las cuentas de primarios los descuentos por trenes de la hoja Tren PRIMARIOS (plan de precios primario: LVSH5)
++ Se mantienen todos los descuentos existentes en: google y microsoft. 
++ Mantener los bonos row (BRWxx) en todas las cuentas que los tengan provisionados.
++Mantener los límites de consumo de roaming a nivel de línea actuales, y el que no tenga ponerle el límite de 500€
++ (16Ago22) €VF.: Se provisionarán en la segunda fase de provisión, en octubre donde se incluirán el resto de cif. Se adjuntará la plantilla de €vf correspondiente para la asignación por cif de la bolsa aprobada. Se adjuntará en el JO 29959.v7.
++(26/09/22) €VF: Se adjunta el reparto de €VF a falta de decisión de los cifs marcados en naranja, que se realizarán mediante anexión de cif, debido a que no disponemos aún de su confirmación de continuidad. Se están solicitando menos €Vf de los aprobados, provisionar según reparto de la hoja Euros VF a medida. </t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>Trenes del Fichero Infinity Business</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DTUSA</t>
+  </si>
+  <si>
+    <t>DCT4G</t>
+  </si>
+  <si>
+    <t>DCO4G</t>
+  </si>
+  <si>
+    <t>DCT2G</t>
+  </si>
+  <si>
+    <t>DCT5G</t>
+  </si>
+  <si>
+    <t>DCT1G</t>
+  </si>
+  <si>
+    <t>DC2GB</t>
+  </si>
+  <si>
     <t>DCRMB</t>
   </si>
   <si>
@@ -43,19 +206,97 @@
     <t>DDCRW</t>
   </si>
   <si>
+    <t>DRZRW</t>
+  </si>
+  <si>
     <t>DDECB</t>
   </si>
   <si>
-    <t>DVDSG</t>
+    <t>DRZMU</t>
+  </si>
+  <si>
+    <t>DVPCF</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DVMTA</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>DBPIN</t>
+  </si>
+  <si>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>DGSH1</t>
   </si>
   <si>
     <t>DVRMG</t>
   </si>
   <si>
-    <t>DVCAR</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>DVFES</t>
+  </si>
+  <si>
+    <t>DVFME</t>
+  </si>
+  <si>
+    <t>DPRID</t>
   </si>
 </sst>
 </file>
@@ -100,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,6 +356,100 @@
       </c>
       <c r="C1" t="s" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
@@ -132,7 +467,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -142,7 +477,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -150,74 +485,522 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>100.0</v>
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>100.0</v>
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>100.0</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>100.0</v>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>100.0</v>
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>100.0</v>
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>100.0</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>54</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>50.0</v>
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>96.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -6,9 +6,11 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Descuentos y Tarifas" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Trenes" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM_Descuentos" r:id="rId3" sheetId="1"/>
+    <sheet name="PlantillaCM_Posventa" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM-Indice" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM-Minutos" r:id="rId6" sheetId="4"/>
+    <sheet name="PlantillaCM-Trenes" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -129,6 +131,18 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -140,7 +154,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C9"/>
   <sheetViews>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -16,26 +16,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>DFUPC</t>
-  </si>
-  <si>
-    <t>Descuentos Especial Airtel Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+  <si>
+    <t>DCDIS</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>RED BOX</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>el Fichero de Infinity Business en la plantilla del CM no Existe.</t>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>Trenes del Fichero Infinity Business</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVBDI</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DICR1</t>
+  </si>
+  <si>
+    <t>DICRR</t>
+  </si>
+  <si>
+    <t>DCREB</t>
+  </si>
+  <si>
+    <t>DCREE</t>
+  </si>
+  <si>
     <t>DCRMB</t>
   </si>
   <si>
@@ -48,16 +138,115 @@
     <t>DDECB</t>
   </si>
   <si>
-    <t>DVDSG</t>
+    <t>DDCRM</t>
+  </si>
+  <si>
+    <t>DDZRM</t>
+  </si>
+  <si>
+    <t>DDTRM</t>
+  </si>
+  <si>
+    <t>DRZMU</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>DVPCF</t>
+  </si>
+  <si>
+    <t>DTRUC</t>
+  </si>
+  <si>
+    <t>DTRUT</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DVMTA</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DVSME</t>
+  </si>
+  <si>
+    <t>DVLIM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
   </si>
   <si>
     <t>DVRMG</t>
   </si>
   <si>
+    <t>DRML1</t>
+  </si>
+  <si>
+    <t>DRML2</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DINZ1</t>
+  </si>
+  <si>
+    <t>DINZ2</t>
+  </si>
+  <si>
+    <t>DINZ3</t>
+  </si>
+  <si>
+    <t>DINZ4</t>
+  </si>
+  <si>
+    <t>DINZ5</t>
+  </si>
+  <si>
     <t>DVCAR</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
   </si>
 </sst>
 </file>
@@ -156,19 +345,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -176,74 +353,570 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
         <v>4</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>100.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>100.0</v>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>100.0</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>100.0</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>100.0</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>100.0</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>100.0</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>35</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>50.0</v>
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/PlantillaCM.xlsx
+++ b/PlantillaCM.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="PlantillaCM_Descuentos" r:id="rId3" sheetId="1"/>
-    <sheet name="PlantillaCM_Posventa" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId5" sheetId="3"/>
-    <sheet name="PlantillaCM-Minutos" r:id="rId6" sheetId="4"/>
+    <sheet name="PlantillaCM_Indice" r:id="rId4" sheetId="2"/>
+    <sheet name="PlantillaCM_Posventa" r:id="rId5" sheetId="3"/>
+    <sheet name="PlantillaCM_Minutos" r:id="rId6" sheetId="4"/>
     <sheet name="PlantillaCM-Trenes" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
@@ -320,7 +320,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -332,13 +338,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
